--- a/ope.ed.gov/2006/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2006.xlsx
+++ b/ope.ed.gov/2006/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_On_campus_Stu" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-on-campus-stu" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -433,52 +430,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2006.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>2467.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>25.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -486,19 +525,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>2467.0</v>
+        <v>180.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -507,7 +546,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J3">
         <v>0.0</v>
@@ -516,10 +555,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M3">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N3">
         <v>0.0</v>
@@ -533,19 +572,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>180.0</v>
+        <v>840.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -580,19 +619,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>840.0</v>
+        <v>1514.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -601,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J5">
         <v>0.0</v>
@@ -613,7 +652,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="N5">
         <v>0.0</v>
@@ -627,19 +666,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1514.0</v>
+        <v>4793.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -648,7 +687,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J6">
         <v>0.0</v>
@@ -660,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M6">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N6">
         <v>0.0</v>
@@ -674,19 +713,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>4793.0</v>
+        <v>7709.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -695,7 +734,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J7">
         <v>0.0</v>
@@ -707,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M7">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N7">
         <v>0.0</v>
@@ -721,19 +760,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>7709.0</v>
+        <v>1324.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -742,19 +781,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L8">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M8">
         <v>2.0</v>
-      </c>
-      <c s="1" r="J8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L8">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M8">
-        <v>10.0</v>
       </c>
       <c s="1" r="N8">
         <v>0.0</v>
@@ -768,19 +807,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1324.0</v>
+        <v>1051.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -789,7 +828,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I9">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J9">
         <v>0.0</v>
@@ -801,13 +840,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N9">
         <v>0.0</v>
       </c>
       <c s="1" r="O9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -815,19 +854,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B10">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>1051.0</v>
+        <v>1060.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -836,25 +875,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I10">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J10">
         <v>0.0</v>
       </c>
       <c s="1" r="K10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L10">
         <v>0.0</v>
       </c>
       <c s="1" r="M10">
+        <v>4.0</v>
+      </c>
+      <c s="1" r="N10">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O10">
         <v>3.0</v>
-      </c>
-      <c s="1" r="N10">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O10">
-        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -862,19 +901,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>1060.0</v>
+        <v>29889.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -883,25 +922,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I11">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J11">
         <v>0.0</v>
       </c>
       <c s="1" r="K11">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="N11">
         <v>0.0</v>
       </c>
       <c s="1" r="O11">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -909,19 +948,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>29889.0</v>
+        <v>1108.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -930,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J12">
         <v>0.0</v>
@@ -939,10 +978,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M12">
-        <v>6.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="N12">
         <v>0.0</v>
@@ -956,19 +995,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>1108.0</v>
+        <v>6152.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -986,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L13">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M13">
         <v>42.0</v>
@@ -1003,19 +1042,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>6152.0</v>
+        <v>1061.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1024,7 +1063,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J14">
         <v>0.0</v>
@@ -1036,7 +1075,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="M14">
-        <v>42.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N14">
         <v>0.0</v>
@@ -1050,19 +1089,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1061.0</v>
+        <v>17393.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1071,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J15">
         <v>0.0</v>
@@ -1080,10 +1119,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1100,13 +1139,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>17393.0</v>
@@ -1118,7 +1157,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I16">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J16">
         <v>0.0</v>
@@ -1130,7 +1169,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1147,13 +1186,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>17393.0</v>
@@ -1191,19 +1230,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>17393.0</v>
+        <v>921.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1238,19 +1277,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>921.0</v>
+        <v>17798.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1259,7 +1298,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I19">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J19">
         <v>0.0</v>
@@ -1271,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N19">
         <v>0.0</v>
@@ -1285,19 +1324,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>17798.0</v>
+        <v>4479.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1306,19 +1345,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I20">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J20">
         <v>0.0</v>
       </c>
       <c s="1" r="K20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M20">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N20">
         <v>0.0</v>
@@ -1332,19 +1371,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>4479.0</v>
+        <v>2398.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1359,13 +1398,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K21">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L21">
         <v>1.0</v>
       </c>
       <c s="1" r="M21">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N21">
         <v>0.0</v>
@@ -1379,19 +1418,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>2398.0</v>
+        <v>187.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1400,7 +1439,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J22">
         <v>0.0</v>
@@ -1409,10 +1448,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L22">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M22">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1426,19 +1465,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>187.0</v>
+        <v>1755.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1459,7 +1498,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M23">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1473,19 +1512,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>1755.0</v>
+        <v>3593.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1506,7 +1545,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M24">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N24">
         <v>0.0</v>
@@ -1520,19 +1559,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>3593.0</v>
+        <v>6238.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1541,25 +1580,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J25">
         <v>0.0</v>
       </c>
       <c s="1" r="K25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M25">
+        <v>34.0</v>
+      </c>
+      <c s="1" r="N25">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O25">
         <v>2.0</v>
-      </c>
-      <c s="1" r="N25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O25">
-        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1567,19 +1606,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>6238.0</v>
+        <v>21625.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1588,25 +1627,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I26">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J26">
         <v>0.0</v>
       </c>
       <c s="1" r="K26">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L26">
         <v>1.0</v>
       </c>
       <c s="1" r="M26">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N26">
         <v>0.0</v>
       </c>
       <c s="1" r="O26">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1614,19 +1653,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>21625.0</v>
+        <v>9220.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1635,25 +1674,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="J27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L27">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="M27">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="N27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O27">
         <v>4.0</v>
-      </c>
-      <c s="1" r="J27">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K27">
-        <v>3.0</v>
-      </c>
-      <c s="1" r="L27">
-        <v>1.0</v>
-      </c>
-      <c s="1" r="M27">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="N27">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O27">
-        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1661,19 +1700,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B28">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>9220.0</v>
+        <v>715.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1682,7 +1721,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1691,16 +1730,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L28">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M28">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
       </c>
       <c s="1" r="O28">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1708,19 +1747,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>715.0</v>
+        <v>1146.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1729,7 +1768,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
@@ -1738,16 +1777,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M29">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
       </c>
       <c s="1" r="O29">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1755,19 +1794,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>1146.0</v>
+        <v>4080.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1776,7 +1815,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J30">
         <v>0.0</v>
@@ -1785,16 +1824,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L30">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
       </c>
       <c s="1" r="O30">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -1802,19 +1841,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231651.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>4080.0</v>
+        <v>1970.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1823,7 +1862,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J31">
         <v>0.0</v>
@@ -1835,7 +1874,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -1849,19 +1888,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>1970.0</v>
+        <v>681.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1870,19 +1909,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J32">
         <v>0.0</v>
       </c>
       <c s="1" r="K32">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L32">
         <v>0.0</v>
       </c>
       <c s="1" r="M32">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
@@ -1896,19 +1935,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>681.0</v>
+        <v>3107.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1923,13 +1962,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K33">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L33">
         <v>0.0</v>
       </c>
       <c s="1" r="M33">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
@@ -1943,19 +1982,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>3107.0</v>
+        <v>748.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1976,7 +2015,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
@@ -1990,19 +2029,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>748.0</v>
+        <v>751.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2011,7 +2050,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J35">
         <v>0.0</v>
@@ -2023,7 +2062,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2037,19 +2076,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>751.0</v>
+        <v>2043.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2058,7 +2097,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J36">
         <v>0.0</v>
@@ -2070,7 +2109,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N36">
         <v>0.0</v>
@@ -2084,19 +2123,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>2043.0</v>
+        <v>365.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2117,7 +2156,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N37">
         <v>0.0</v>
@@ -2131,19 +2170,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>365.0</v>
+        <v>4862.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2152,7 +2191,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I38">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J38">
         <v>0.0</v>
@@ -2164,7 +2203,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N38">
         <v>0.0</v>
@@ -2178,19 +2217,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B39">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>4862.0</v>
+        <v>4496.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2211,13 +2250,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="N39">
         <v>0.0</v>
       </c>
       <c s="1" r="O39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2225,19 +2264,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>4496.0</v>
+        <v>24068.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2258,13 +2297,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M40">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
       </c>
       <c s="1" r="O40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -2272,19 +2311,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B41">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>24068.0</v>
+        <v>30189.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2305,7 +2344,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M41">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="N41">
         <v>0.0</v>
@@ -2322,13 +2361,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>30189.0</v>
@@ -2340,7 +2379,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -2352,13 +2391,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
       </c>
       <c s="1" r="O42">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -2366,19 +2405,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B43">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>30189.0</v>
+        <v>872.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2399,13 +2438,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N43">
         <v>0.0</v>
       </c>
       <c s="1" r="O43">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -2413,19 +2452,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
-        <v>872.0</v>
+        <v>1397.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2446,13 +2485,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M44">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="N44">
         <v>0.0</v>
       </c>
       <c s="1" r="O44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -2460,19 +2499,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B45">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>1397.0</v>
+        <v>28470.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2481,7 +2520,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2493,13 +2532,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
       </c>
       <c s="1" r="O45">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -2510,13 +2549,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
         <v>28470.0</v>
@@ -2528,7 +2567,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J46">
         <v>0.0</v>
@@ -2540,13 +2579,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N46">
         <v>0.0</v>
       </c>
       <c s="1" r="O46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -2554,19 +2593,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>28470.0</v>
+        <v>4872.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2575,19 +2614,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J47">
         <v>0.0</v>
       </c>
       <c s="1" r="K47">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L47">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M47">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N47">
         <v>0.0</v>
@@ -2601,19 +2640,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B48">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>4872.0</v>
+        <v>1599.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2622,19 +2661,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J48">
         <v>0.0</v>
       </c>
       <c s="1" r="K48">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L48">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M48">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="N48">
         <v>0.0</v>
@@ -2648,19 +2687,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B49">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>1599.0</v>
+        <v>178.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2681,7 +2720,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N49">
         <v>0.0</v>
@@ -2695,19 +2734,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B50">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>178.0</v>
+        <v>1417.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2716,7 +2755,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I50">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J50">
         <v>0.0</v>
@@ -2725,10 +2764,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L50">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M50">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N50">
         <v>0.0</v>
@@ -2742,19 +2781,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>1417.0</v>
+        <v>2149.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2763,7 +2802,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I51">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J51">
         <v>0.0</v>
@@ -2772,10 +2811,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L51">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
@@ -2789,19 +2828,19 @@
         <v>2006.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>2149.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2810,7 +2849,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J52">
         <v>0.0</v>
@@ -2822,59 +2861,12 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N52">
         <v>0.0</v>
       </c>
       <c s="1" r="O52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c s="1" r="A53">
-        <v>2006.0</v>
-      </c>
-      <c s="1" r="B53">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C53">
-        <v>116</v>
-      </c>
-      <c s="1" r="D53">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E53">
-        <v>117</v>
-      </c>
-      <c s="1" r="F53">
-        <v>245.0</v>
-      </c>
-      <c s="1" r="G53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N53">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O53">
         <v>0.0</v>
       </c>
     </row>
